--- a/electronics/elecLab11/data.xlsx
+++ b/electronics/elecLab11/data.xlsx
@@ -165,6 +165,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$9</c:f>
@@ -1315,7 +1329,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A14" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,7 +1364,7 @@
         <v>116</v>
       </c>
       <c r="D2">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D16" si="0">C2/B2</f>
         <v>1.0740740740740742</v>
       </c>
     </row>
@@ -1365,7 +1379,7 @@
         <v>116</v>
       </c>
       <c r="D3">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>1.0545454545454545</v>
       </c>
     </row>
@@ -1380,7 +1394,7 @@
         <v>88</v>
       </c>
       <c r="D4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.7857142857142857</v>
       </c>
     </row>
@@ -1395,7 +1409,7 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.54347826086956519</v>
       </c>
     </row>
@@ -1410,7 +1424,7 @@
         <v>76</v>
       </c>
       <c r="D6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.6785714285714286</v>
       </c>
     </row>
@@ -1425,7 +1439,7 @@
         <v>105</v>
       </c>
       <c r="D7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
     </row>
@@ -1440,7 +1454,7 @@
         <v>116</v>
       </c>
       <c r="D8">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>1.0357142857142858</v>
       </c>
     </row>
@@ -1455,7 +1469,7 @@
         <v>118</v>
       </c>
       <c r="D9">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>1.0350877192982457</v>
       </c>
     </row>
@@ -1470,7 +1484,7 @@
         <v>124</v>
       </c>
       <c r="D10">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>1.0689655172413792</v>
       </c>
     </row>
@@ -1485,7 +1499,7 @@
         <v>122</v>
       </c>
       <c r="D11">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>1.0701754385964912</v>
       </c>
     </row>
@@ -1500,13 +1514,13 @@
         <v>124</v>
       </c>
       <c r="D12">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>1.0877192982456141</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>200.5</v>
+        <v>200500</v>
       </c>
       <c r="B13">
         <v>118</v>
@@ -1515,7 +1529,7 @@
         <v>124</v>
       </c>
       <c r="D13">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>1.0508474576271187</v>
       </c>
     </row>
@@ -1530,7 +1544,7 @@
         <v>120</v>
       </c>
       <c r="D14">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1545,7 +1559,7 @@
         <v>118</v>
       </c>
       <c r="D15">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>0.98333333333333328</v>
       </c>
     </row>
@@ -1560,7 +1574,7 @@
         <v>110</v>
       </c>
       <c r="D16">
-        <f>C16/B16</f>
+        <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
     </row>
